--- a/model_inputs/labour_reports/staff_salaries.xlsx
+++ b/model_inputs/labour_reports/staff_salaries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjc92\Downloads\Work\BME Service Delivery Cost Model\data_inputs\labour_reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjc92\Downloads\biomed-service-delivery-cost-model\model_inputs\labour_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA7CCCF-DFB7-4FF6-9931-4C7FAE4AD402}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A7DBF5-6C9A-4680-8881-90639E99B3EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regional Staff" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Regional Staff'!$A$1:$I$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tech Staff'!$A$1:$L$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="108">
   <si>
     <t>Administrative Support Sec</t>
   </si>
@@ -334,9 +335,6 @@
   </si>
   <si>
     <t>BME_DI_MTN</t>
-  </si>
-  <si>
-    <t>DI</t>
   </si>
   <si>
     <t>BME_DI_OCEAN</t>
@@ -470,7 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -481,6 +479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -956,10 +955,10 @@
         <v>143693</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>2</v>
@@ -1018,10 +1017,10 @@
         <v>143693</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>2</v>
@@ -1142,10 +1141,10 @@
         <v>143693</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
@@ -1234,7 +1233,7 @@
         <v>29</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>6</v>
@@ -1262,10 +1261,10 @@
         <v>109676</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>2</v>
@@ -1351,10 +1350,10 @@
         <v>109676</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
@@ -1382,10 +1381,10 @@
         <v>109676</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>5</v>
@@ -1413,10 +1412,10 @@
         <v>130672</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>5</v>
@@ -1447,7 +1446,7 @@
         <v>29</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>2</v>
@@ -1475,10 +1474,10 @@
         <v>76707</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>5</v>
@@ -1535,10 +1534,10 @@
         <v>109676</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
@@ -1597,10 +1596,10 @@
         <v>199757</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1833,7 +1832,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1902,7 +1901,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
@@ -1948,7 +1947,7 @@
         <v>61</v>
       </c>
       <c r="D5" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
@@ -2076,25 +2075,25 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2109,38 +2108,38 @@
         <v>61</v>
       </c>
       <c r="D12" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E12" s="7">
         <v>0</v>
       </c>
       <c r="F12" s="7">
+        <v>4</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
         <v>1</v>
       </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="G13" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2210,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2224,7 +2223,7 @@
         <v>61</v>
       </c>
       <c r="D17" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="7">
         <v>0</v>
@@ -2339,7 +2338,7 @@
         <v>61</v>
       </c>
       <c r="D22" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="7">
         <v>0</v>
@@ -2362,7 +2361,7 @@
         <v>61</v>
       </c>
       <c r="D23" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="7">
         <v>0</v>
@@ -2444,48 +2443,48 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="8">
-        <v>0</v>
-      </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="B28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="8">
-        <v>0</v>
-      </c>
-      <c r="E28" s="8">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
+      <c r="D28" s="10">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2681,7 +2680,7 @@
         <v>27</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="D37" s="7">
         <v>0</v>
@@ -2690,21 +2689,21 @@
         <v>1</v>
       </c>
       <c r="F37" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G37" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="D38" s="7">
         <v>0</v>
@@ -2713,10 +2712,10 @@
         <v>1</v>
       </c>
       <c r="F38" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G38" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2729,7 +2728,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2739,25 +2738,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2884,6 +2883,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008B72074D08840F4A907EA3B37AB4414E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7356207cb152440f28e0cdf491afbdb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -2997,38 +3011,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D72C636-6F61-4865-A889-4D5549F92FE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D543704-520C-4582-8787-7B48264267E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -3043,10 +3026,26 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED56B025-4D52-411E-B5B1-9A793E8274FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D72C636-6F61-4865-A889-4D5549F92FE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/model_inputs/labour_reports/staff_salaries.xlsx
+++ b/model_inputs/labour_reports/staff_salaries.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjc92\Downloads\biomed-service-delivery-cost-model\model_inputs\labour_reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjc92\Downloads\LMBME Service Delivery Cost Model\model_inputs\labour_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A7DBF5-6C9A-4680-8881-90639E99B3EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3145F1B4-64FE-4562-AA2E-DC7129968A97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regional Staff" sheetId="2" r:id="rId1"/>
-    <sheet name="Regional Staff Salary Schedule" sheetId="3" r:id="rId2"/>
-    <sheet name="Tech Staff" sheetId="4" r:id="rId3"/>
-    <sheet name="Tech Staff Salary Schedule" sheetId="5" r:id="rId4"/>
-    <sheet name="Benefits Multiplier" sheetId="6" r:id="rId5"/>
+    <sheet name="Tech Staff" sheetId="4" r:id="rId2"/>
+    <sheet name="Regional Staff Salary Sched" sheetId="3" r:id="rId3"/>
+    <sheet name="Admin Suport Sec Salary Sched" sheetId="7" r:id="rId4"/>
+    <sheet name="Tech Staff Salary Sched" sheetId="5" r:id="rId5"/>
+    <sheet name="Benefits Multiplier" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Regional Staff'!$A$1:$I$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tech Staff'!$A$1:$L$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tech Staff'!$A$1:$G$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +38,143 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={27757780-F7E4-4F34-AE23-F76A905AC47B}</author>
+    <author>tc={975FFC2C-0534-4BA0-B925-82EE49702020}</author>
+    <author>tc={60A5EAA9-F220-449A-A463-B86C4068738D}</author>
+    <author>tc={4FBFC7B9-A7E9-4C05-9BE4-E1505BCCF3D3}</author>
+    <author>tc={1A5F32C7-EBC9-466A-9050-3296D279A9C6}</author>
+    <author>tc={2EB890E7-3991-43F6-B7F0-D989617E28E5}</author>
+    <author>tc={C4E2FB90-7D3B-461A-99BD-ACDA90C877AF}</author>
+    <author>tc={5ED6622E-9C7E-47F2-808C-92BBC146CCCB}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{27757780-F7E4-4F34-AE23-F76A905AC47B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Use "Tech Staff Salary Sched" and multiply hourly wage by 1957.5</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{975FFC2C-0534-4BA0-B925-82EE49702020}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Use "Admin Support Sec Salary Sched"</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{60A5EAA9-F220-449A-A463-B86C4068738D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Use "Tech Staff Salary Sched" and multiply hourly wage by 1957.5</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{4FBFC7B9-A7E9-4C05-9BE4-E1505BCCF3D3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Use "Admin Support Sec Salary Sched"</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{1A5F32C7-EBC9-466A-9050-3296D279A9C6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Use "Admin Support Sec Salary Sched"</t>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="5" shapeId="0" xr:uid="{2EB890E7-3991-43F6-B7F0-D989617E28E5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Use "Admin Support Sec Salary Sched"</t>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="6" shapeId="0" xr:uid="{C4E2FB90-7D3B-461A-99BD-ACDA90C877AF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Use "Tech Staff Salary Sched" and multiply hourly wage by 1957.5</t>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="7" shapeId="0" xr:uid="{5ED6622E-9C7E-47F2-808C-92BBC146CCCB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Use "Admin Support Sec Salary Sched"</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={A534A296-34AD-4DDE-B230-9F05549BC1DF}</author>
+    <author>tc={D83407F8-1102-4FFC-871A-66576C0F8F3A}</author>
+    <author>tc={4D46BEA9-90C1-4F71-9DC6-0E73F4758318}</author>
+    <author>tc={DF1A7951-BE6F-402B-B1E3-24013415FCD6}</author>
+    <author>tc={FE45B2BA-783B-486C-B5CF-F060D3672506}</author>
+  </authors>
+  <commentList>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{A534A296-34AD-4DDE-B230-9F05549BC1DF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not used?</t>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="1" shapeId="0" xr:uid="{D83407F8-1102-4FFC-871A-66576C0F8F3A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not used?</t>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="2" shapeId="0" xr:uid="{4D46BEA9-90C1-4F71-9DC6-0E73F4758318}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not used?</t>
+      </text>
+    </comment>
+    <comment ref="A27" authorId="3" shapeId="0" xr:uid="{DF1A7951-BE6F-402B-B1E3-24013415FCD6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not used?</t>
+      </text>
+    </comment>
+    <comment ref="A35" authorId="4" shapeId="0" xr:uid="{FE45B2BA-783B-486C-B5CF-F060D3672506}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Includes BME_DI_ARH</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="111">
   <si>
     <t>Administrative Support Sec</t>
   </si>
@@ -271,9 +407,6 @@
     <t>BME_ARH</t>
   </si>
   <si>
-    <t>BME_DI_ARH</t>
-  </si>
-  <si>
     <t>BME_BUH</t>
   </si>
   <si>
@@ -331,9 +464,6 @@
     <t>BME_RENAL_SMH</t>
   </si>
   <si>
-    <t>BME_RENAL_ADU</t>
-  </si>
-  <si>
     <t>BME_DI_MTN</t>
   </si>
   <si>
@@ -362,15 +492,31 @@
   </si>
   <si>
     <t>FHA, VCH, PHC, PHSA</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>bi_weekly</t>
+  </si>
+  <si>
+    <t>hourly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -414,7 +560,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,12 +576,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +608,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -477,9 +617,10 @@
     <xf numFmtId="6" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -564,6 +705,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Jonathan Chen" id="{5375346E-2E4E-4714-B51C-A861FAE8AFE0}" userId="3786c4bf77332fb8" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -885,12 +1032,61 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2020-12-04T19:16:06.23" personId="{5375346E-2E4E-4714-B51C-A861FAE8AFE0}" id="{27757780-F7E4-4F34-AE23-F76A905AC47B}">
+    <text>Use "Tech Staff Salary Sched" and multiply hourly wage by 1957.5</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2020-12-04T19:20:23.45" personId="{5375346E-2E4E-4714-B51C-A861FAE8AFE0}" id="{975FFC2C-0534-4BA0-B925-82EE49702020}">
+    <text>Use "Admin Support Sec Salary Sched"</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2020-12-04T19:16:18.61" personId="{5375346E-2E4E-4714-B51C-A861FAE8AFE0}" id="{60A5EAA9-F220-449A-A463-B86C4068738D}">
+    <text>Use "Tech Staff Salary Sched" and multiply hourly wage by 1957.5</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2020-12-04T19:21:53.68" personId="{5375346E-2E4E-4714-B51C-A861FAE8AFE0}" id="{4FBFC7B9-A7E9-4C05-9BE4-E1505BCCF3D3}">
+    <text>Use "Admin Support Sec Salary Sched"</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2020-12-04T19:21:58.58" personId="{5375346E-2E4E-4714-B51C-A861FAE8AFE0}" id="{1A5F32C7-EBC9-466A-9050-3296D279A9C6}">
+    <text>Use "Admin Support Sec Salary Sched"</text>
+  </threadedComment>
+  <threadedComment ref="A7" dT="2020-12-04T19:22:10.73" personId="{5375346E-2E4E-4714-B51C-A861FAE8AFE0}" id="{2EB890E7-3991-43F6-B7F0-D989617E28E5}">
+    <text>Use "Admin Support Sec Salary Sched"</text>
+  </threadedComment>
+  <threadedComment ref="A8" dT="2020-12-04T19:16:26.21" personId="{5375346E-2E4E-4714-B51C-A861FAE8AFE0}" id="{C4E2FB90-7D3B-461A-99BD-ACDA90C877AF}">
+    <text>Use "Tech Staff Salary Sched" and multiply hourly wage by 1957.5</text>
+  </threadedComment>
+  <threadedComment ref="A22" dT="2020-12-04T19:23:22.52" personId="{5375346E-2E4E-4714-B51C-A861FAE8AFE0}" id="{5ED6622E-9C7E-47F2-808C-92BBC146CCCB}">
+    <text>Use "Admin Support Sec Salary Sched"</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A11" dT="2020-12-04T19:13:46.98" personId="{5375346E-2E4E-4714-B51C-A861FAE8AFE0}" id="{A534A296-34AD-4DDE-B230-9F05549BC1DF}">
+    <text>Not used?</text>
+  </threadedComment>
+  <threadedComment ref="A13" dT="2020-12-04T19:14:11.40" personId="{5375346E-2E4E-4714-B51C-A861FAE8AFE0}" id="{D83407F8-1102-4FFC-871A-66576C0F8F3A}">
+    <text>Not used?</text>
+  </threadedComment>
+  <threadedComment ref="A26" dT="2020-12-04T19:14:30.15" personId="{5375346E-2E4E-4714-B51C-A861FAE8AFE0}" id="{4D46BEA9-90C1-4F71-9DC6-0E73F4758318}">
+    <text>Not used?</text>
+  </threadedComment>
+  <threadedComment ref="A27" dT="2020-12-04T19:14:39.26" personId="{5375346E-2E4E-4714-B51C-A861FAE8AFE0}" id="{DF1A7951-BE6F-402B-B1E3-24013415FCD6}">
+    <text>Not used?</text>
+  </threadedComment>
+  <threadedComment ref="A35" dT="2020-12-05T00:06:38.69" personId="{5375346E-2E4E-4714-B51C-A861FAE8AFE0}" id="{FE45B2BA-783B-486C-B5CF-F060D3672506}">
+    <text>Includes BME_DI_ARH</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,18 +1143,18 @@
         <v>10</v>
       </c>
       <c r="D2" s="4">
-        <f>VLOOKUP(C2,'Regional Staff Salary Schedule'!$A$2:$C$18,2)</f>
-        <v>99960</v>
+        <f>1957.5*VLOOKUP(C2,'Tech Staff Salary Sched'!$A$2:$G$5,7)</f>
+        <v>82156.274999999994</v>
       </c>
       <c r="E2" s="4">
-        <f>VLOOKUP(C2,'Regional Staff Salary Schedule'!$A$2:$C$18,3)</f>
-        <v>143693</v>
+        <f>1957.5*VLOOKUP(C2,'Tech Staff Salary Sched'!$A$2:$G$5,7)</f>
+        <v>82156.274999999994</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>2</v>
@@ -974,16 +1170,14 @@
       <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="3">
-        <v>5</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="4">
-        <f>VLOOKUP(C3,'Regional Staff Salary Schedule'!$A$2:$C$18,2)</f>
-        <v>53361</v>
+        <f>'Admin Suport Sec Salary Sched'!$B$2</f>
+        <v>42900.72</v>
       </c>
       <c r="E3" s="4">
-        <f>VLOOKUP(C3,'Regional Staff Salary Schedule'!$A$2:$C$18,3)</f>
-        <v>76707</v>
+        <f>'Admin Suport Sec Salary Sched'!$B$6</f>
+        <v>48389.39</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>30</v>
@@ -1009,18 +1203,18 @@
         <v>10</v>
       </c>
       <c r="D4" s="4">
-        <f>VLOOKUP(C4,'Regional Staff Salary Schedule'!$A$2:$C$18,2)</f>
-        <v>99960</v>
+        <f>1957.5*VLOOKUP(C4,'Tech Staff Salary Sched'!$A$2:$G$5,7)</f>
+        <v>82156.274999999994</v>
       </c>
       <c r="E4" s="4">
-        <f>VLOOKUP(C4,'Regional Staff Salary Schedule'!$A$2:$C$18,3)</f>
-        <v>143693</v>
+        <f>1957.5*VLOOKUP(C4,'Tech Staff Salary Sched'!$A$2:$G$5,7)</f>
+        <v>82156.274999999994</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>2</v>
@@ -1036,16 +1230,14 @@
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3">
-        <v>5</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="4">
-        <f>VLOOKUP(C5,'Regional Staff Salary Schedule'!$A$2:$C$18,2)</f>
-        <v>53361</v>
+        <f>'Admin Suport Sec Salary Sched'!$B$2</f>
+        <v>42900.72</v>
       </c>
       <c r="E5" s="4">
-        <f>VLOOKUP(C5,'Regional Staff Salary Schedule'!$A$2:$C$18,3)</f>
-        <v>76707</v>
+        <f>'Admin Suport Sec Salary Sched'!$B$6</f>
+        <v>48389.39</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>27</v>
@@ -1067,16 +1259,14 @@
       <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="3">
-        <v>5</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="4">
-        <f>VLOOKUP(C6,'Regional Staff Salary Schedule'!$A$2:$C$18,2)</f>
-        <v>53361</v>
+        <f>'Admin Suport Sec Salary Sched'!$B$2</f>
+        <v>42900.72</v>
       </c>
       <c r="E6" s="4">
-        <f>VLOOKUP(C6,'Regional Staff Salary Schedule'!$A$2:$C$18,3)</f>
-        <v>76707</v>
+        <f>'Admin Suport Sec Salary Sched'!$B$6</f>
+        <v>48389.39</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>29</v>
@@ -1098,16 +1288,14 @@
       <c r="B7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="3">
-        <v>5</v>
-      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="4">
-        <f>VLOOKUP(C7,'Regional Staff Salary Schedule'!$A$2:$C$18,2)</f>
-        <v>53361</v>
+        <f>'Admin Suport Sec Salary Sched'!$B$2</f>
+        <v>42900.72</v>
       </c>
       <c r="E7" s="4">
-        <f>VLOOKUP(C7,'Regional Staff Salary Schedule'!$A$2:$C$18,3)</f>
-        <v>76707</v>
+        <f>'Admin Suport Sec Salary Sched'!$B$6</f>
+        <v>48389.39</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>27</v>
@@ -1133,18 +1321,18 @@
         <v>10</v>
       </c>
       <c r="D8" s="4">
-        <f>VLOOKUP(C8,'Regional Staff Salary Schedule'!$A$2:$C$18,2)</f>
-        <v>99960</v>
+        <f>1957.5*VLOOKUP(C8,'Tech Staff Salary Sched'!$A$2:$G$5,7)</f>
+        <v>82156.274999999994</v>
       </c>
       <c r="E8" s="4">
-        <f>VLOOKUP(C8,'Regional Staff Salary Schedule'!$A$2:$C$18,3)</f>
-        <v>143693</v>
+        <f>1957.5*VLOOKUP(C8,'Tech Staff Salary Sched'!$A$2:$G$5,7)</f>
+        <v>82156.274999999994</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
@@ -1164,11 +1352,11 @@
         <v>11</v>
       </c>
       <c r="D9" s="4">
-        <f>VLOOKUP(C9,'Regional Staff Salary Schedule'!$A$2:$C$18,2)</f>
+        <f>VLOOKUP(C9,'Regional Staff Salary Sched'!$A$2:$C$18,2)</f>
         <v>109997</v>
       </c>
       <c r="E9" s="4">
-        <f>VLOOKUP(C9,'Regional Staff Salary Schedule'!$A$2:$C$18,3)</f>
+        <f>VLOOKUP(C9,'Regional Staff Salary Sched'!$A$2:$C$18,3)</f>
         <v>158120</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1193,11 +1381,11 @@
         <v>11</v>
       </c>
       <c r="D10" s="4">
-        <f>VLOOKUP(C10,'Regional Staff Salary Schedule'!$A$2:$C$18,2)</f>
+        <f>VLOOKUP(C10,'Regional Staff Salary Sched'!$A$2:$C$18,2)</f>
         <v>109997</v>
       </c>
       <c r="E10" s="4">
-        <f>VLOOKUP(C10,'Regional Staff Salary Schedule'!$A$2:$C$18,3)</f>
+        <f>VLOOKUP(C10,'Regional Staff Salary Sched'!$A$2:$C$18,3)</f>
         <v>158120</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1222,18 +1410,18 @@
         <v>11</v>
       </c>
       <c r="D11" s="4">
-        <f>VLOOKUP(C11,'Regional Staff Salary Schedule'!$A$2:$C$18,2)</f>
+        <f>VLOOKUP(C11,'Regional Staff Salary Sched'!$A$2:$C$18,2)</f>
         <v>109997</v>
       </c>
       <c r="E11" s="4">
-        <f>VLOOKUP(C11,'Regional Staff Salary Schedule'!$A$2:$C$18,3)</f>
+        <f>VLOOKUP(C11,'Regional Staff Salary Sched'!$A$2:$C$18,3)</f>
         <v>158120</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>6</v>
@@ -1253,18 +1441,18 @@
         <v>8</v>
       </c>
       <c r="D12" s="4">
-        <f>VLOOKUP(C12,'Regional Staff Salary Schedule'!$A$2:$C$18,2)</f>
+        <f>VLOOKUP(C12,'Regional Staff Salary Sched'!$A$2:$C$18,2)</f>
         <v>76296</v>
       </c>
       <c r="E12" s="4">
-        <f>VLOOKUP(C12,'Regional Staff Salary Schedule'!$A$2:$C$18,3)</f>
+        <f>VLOOKUP(C12,'Regional Staff Salary Sched'!$A$2:$C$18,3)</f>
         <v>109676</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>2</v>
@@ -1284,11 +1472,11 @@
         <v>8</v>
       </c>
       <c r="D13" s="4">
-        <f>VLOOKUP(C13,'Regional Staff Salary Schedule'!$A$2:$C$18,2)</f>
+        <f>VLOOKUP(C13,'Regional Staff Salary Sched'!$A$2:$C$18,2)</f>
         <v>76296</v>
       </c>
       <c r="E13" s="4">
-        <f>VLOOKUP(C13,'Regional Staff Salary Schedule'!$A$2:$C$18,3)</f>
+        <f>VLOOKUP(C13,'Regional Staff Salary Sched'!$A$2:$C$18,3)</f>
         <v>109676</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -1313,11 +1501,11 @@
         <v>9</v>
       </c>
       <c r="D14" s="4">
-        <f>VLOOKUP(C14,'Regional Staff Salary Schedule'!$A$2:$C$18,2)</f>
+        <f>VLOOKUP(C14,'Regional Staff Salary Sched'!$A$2:$C$18,2)</f>
         <v>90902</v>
       </c>
       <c r="E14" s="4">
-        <f>VLOOKUP(C14,'Regional Staff Salary Schedule'!$A$2:$C$18,3)</f>
+        <f>VLOOKUP(C14,'Regional Staff Salary Sched'!$A$2:$C$18,3)</f>
         <v>130672</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -1342,18 +1530,18 @@
         <v>8</v>
       </c>
       <c r="D15" s="4">
-        <f>VLOOKUP(C15,'Regional Staff Salary Schedule'!$A$2:$C$18,2)</f>
+        <f>VLOOKUP(C15,'Regional Staff Salary Sched'!$A$2:$C$18,2)</f>
         <v>76296</v>
       </c>
       <c r="E15" s="4">
-        <f>VLOOKUP(C15,'Regional Staff Salary Schedule'!$A$2:$C$18,3)</f>
+        <f>VLOOKUP(C15,'Regional Staff Salary Sched'!$A$2:$C$18,3)</f>
         <v>109676</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
@@ -1373,18 +1561,18 @@
         <v>8</v>
       </c>
       <c r="D16" s="4">
-        <f>VLOOKUP(C16,'Regional Staff Salary Schedule'!$A$2:$C$18,2)</f>
+        <f>VLOOKUP(C16,'Regional Staff Salary Sched'!$A$2:$C$18,2)</f>
         <v>76296</v>
       </c>
       <c r="E16" s="4">
-        <f>VLOOKUP(C16,'Regional Staff Salary Schedule'!$A$2:$C$18,3)</f>
+        <f>VLOOKUP(C16,'Regional Staff Salary Sched'!$A$2:$C$18,3)</f>
         <v>109676</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>5</v>
@@ -1404,18 +1592,18 @@
         <v>9</v>
       </c>
       <c r="D17" s="4">
-        <f>VLOOKUP(C17,'Regional Staff Salary Schedule'!$A$2:$C$18,2)</f>
+        <f>VLOOKUP(C17,'Regional Staff Salary Sched'!$A$2:$C$18,2)</f>
         <v>90902</v>
       </c>
       <c r="E17" s="4">
-        <f>VLOOKUP(C17,'Regional Staff Salary Schedule'!$A$2:$C$18,3)</f>
+        <f>VLOOKUP(C17,'Regional Staff Salary Sched'!$A$2:$C$18,3)</f>
         <v>130672</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>5</v>
@@ -1435,18 +1623,18 @@
         <v>9</v>
       </c>
       <c r="D18" s="4">
-        <f>VLOOKUP(C18,'Regional Staff Salary Schedule'!$A$2:$C$18,2)</f>
+        <f>VLOOKUP(C18,'Regional Staff Salary Sched'!$A$2:$C$18,2)</f>
         <v>90902</v>
       </c>
       <c r="E18" s="4">
-        <f>VLOOKUP(C18,'Regional Staff Salary Schedule'!$A$2:$C$18,3)</f>
+        <f>VLOOKUP(C18,'Regional Staff Salary Sched'!$A$2:$C$18,3)</f>
         <v>130672</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>2</v>
@@ -1466,18 +1654,18 @@
         <v>5</v>
       </c>
       <c r="D19" s="4">
-        <f>VLOOKUP(C19,'Regional Staff Salary Schedule'!$A$2:$C$18,2)</f>
+        <f>VLOOKUP(C19,'Regional Staff Salary Sched'!$A$2:$C$18,2)</f>
         <v>53361</v>
       </c>
       <c r="E19" s="4">
-        <f>VLOOKUP(C19,'Regional Staff Salary Schedule'!$A$2:$C$18,3)</f>
+        <f>VLOOKUP(C19,'Regional Staff Salary Sched'!$A$2:$C$18,3)</f>
         <v>76707</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>5</v>
@@ -1497,11 +1685,11 @@
         <v>9</v>
       </c>
       <c r="D20" s="4">
-        <f>VLOOKUP(C20,'Regional Staff Salary Schedule'!$A$2:$C$18,2)</f>
+        <f>VLOOKUP(C20,'Regional Staff Salary Sched'!$A$2:$C$18,2)</f>
         <v>90902</v>
       </c>
       <c r="E20" s="4">
-        <f>VLOOKUP(C20,'Regional Staff Salary Schedule'!$A$2:$C$18,3)</f>
+        <f>VLOOKUP(C20,'Regional Staff Salary Sched'!$A$2:$C$18,3)</f>
         <v>130672</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -1526,18 +1714,18 @@
         <v>8</v>
       </c>
       <c r="D21" s="4">
-        <f>VLOOKUP(C21,'Regional Staff Salary Schedule'!$A$2:$C$18,2)</f>
+        <f>VLOOKUP(C21,'Regional Staff Salary Sched'!$A$2:$C$18,2)</f>
         <v>76296</v>
       </c>
       <c r="E21" s="4">
-        <f>VLOOKUP(C21,'Regional Staff Salary Schedule'!$A$2:$C$18,3)</f>
+        <f>VLOOKUP(C21,'Regional Staff Salary Sched'!$A$2:$C$18,3)</f>
         <v>109676</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
@@ -1553,16 +1741,14 @@
       <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="3">
-        <v>5</v>
-      </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="4">
-        <f>VLOOKUP(C22,'Regional Staff Salary Schedule'!$A$2:$C$18,2)</f>
-        <v>53361</v>
+        <f>'Admin Suport Sec Salary Sched'!$B$2</f>
+        <v>42900.72</v>
       </c>
       <c r="E22" s="4">
-        <f>VLOOKUP(C22,'Regional Staff Salary Schedule'!$A$2:$C$18,3)</f>
-        <v>76707</v>
+        <f>'Admin Suport Sec Salary Sched'!$B$6</f>
+        <v>48389.39</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>28</v>
@@ -1585,21 +1771,21 @@
         <v>47</v>
       </c>
       <c r="C23" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="4">
-        <f>VLOOKUP(C23,'Regional Staff Salary Schedule'!$A$2:$C$18,2)</f>
-        <v>133171</v>
+        <f>VLOOKUP(C23,'Regional Staff Salary Sched'!$A$2:$C$18,2)</f>
+        <v>121013</v>
       </c>
       <c r="E23" s="4">
-        <f>VLOOKUP(C23,'Regional Staff Salary Schedule'!$A$2:$C$18,3)</f>
-        <v>199757</v>
+        <f>VLOOKUP(C23,'Regional Staff Salary Sched'!$A$2:$C$18,3)</f>
+        <v>173956</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1607,10 +1793,863 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726CAD88-95B2-48F4-83A5-5059E9D62D0D}">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="7">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>11.7</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="7">
+        <v>9</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="8">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="7">
+        <v>15.9</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="7">
+        <v>11.9</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="8">
+        <v>2</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
+        <v>2</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="8">
+        <v>2</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>2</v>
+      </c>
+      <c r="F35" s="7">
+        <v>7</v>
+      </c>
+      <c r="G35" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F36" s="7">
+        <v>10</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G36" xr:uid="{2FDB78C7-9045-4A4A-AFE5-655225028803}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8488EDC-440D-4FB4-8070-E69FB2587701}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -1827,895 +2866,123 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726CAD88-95B2-48F4-83A5-5059E9D62D0D}">
-  <dimension ref="A1:G38"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FF89A6-1CD6-4DA3-AA16-6BCC8BA59369}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="7">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>42900.72</v>
+      </c>
+      <c r="C2" s="11">
+        <v>3575.06</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1644.38</v>
+      </c>
+      <c r="E2" s="11">
+        <v>23.491099999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44070.31</v>
+      </c>
+      <c r="C3" s="11">
+        <v>3672.53</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1689.21</v>
+      </c>
+      <c r="E3" s="11">
+        <v>24.131599999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B4" s="11">
+        <v>45276.94</v>
+      </c>
+      <c r="C4" s="11">
+        <v>3773.08</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1735.46</v>
+      </c>
+      <c r="E4" s="11">
+        <v>24.792300000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>46524.79</v>
+      </c>
+      <c r="C5" s="11">
+        <v>3877.07</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1783.29</v>
+      </c>
+      <c r="E5" s="11">
+        <v>25.4756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="7">
-        <v>27</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>5</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="7">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>6</v>
-      </c>
-      <c r="G7" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="7">
-        <v>10</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>5</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>3</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="8">
-        <v>5</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>2</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="10">
-        <v>2</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="7">
-        <v>15</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>4</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0</v>
-      </c>
-      <c r="F13" s="10">
-        <v>1</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>2</v>
-      </c>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="7">
-        <v>8</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="7">
-        <v>4</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>2</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="7">
-        <v>3</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="7">
-        <v>3</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>1</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="7">
-        <v>10</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="7">
-        <v>14</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>2</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10">
-        <v>0</v>
-      </c>
-      <c r="F27" s="10">
-        <v>0</v>
-      </c>
-      <c r="G27" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="10">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0</v>
-      </c>
-      <c r="F28" s="10">
-        <v>0</v>
-      </c>
-      <c r="G28" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
-      <c r="E29" s="8">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8">
-        <v>0</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0</v>
-      </c>
-      <c r="E30" s="8">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0</v>
-      </c>
-      <c r="E31" s="8">
-        <v>0</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0</v>
-      </c>
-      <c r="G31" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0</v>
-      </c>
-      <c r="E32" s="8">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0</v>
-      </c>
-      <c r="G32" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="8">
-        <v>0</v>
-      </c>
-      <c r="E33" s="8">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
-        <v>0</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="8">
-        <v>0</v>
-      </c>
-      <c r="E34" s="8">
-        <v>0</v>
-      </c>
-      <c r="F34" s="8">
-        <v>0</v>
-      </c>
-      <c r="G34" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="8">
-        <v>0</v>
-      </c>
-      <c r="E35" s="8">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0</v>
-      </c>
-      <c r="G35" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="8">
-        <v>0</v>
-      </c>
-      <c r="E36" s="8">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0</v>
-      </c>
-      <c r="G36" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="7">
-        <v>0</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1</v>
-      </c>
-      <c r="F37" s="7">
-        <v>6</v>
-      </c>
-      <c r="G37" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="7">
-        <v>0</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1</v>
-      </c>
-      <c r="F38" s="7">
-        <v>6</v>
-      </c>
-      <c r="G38" s="7">
-        <v>2</v>
+      <c r="B6" s="11">
+        <v>48389.39</v>
+      </c>
+      <c r="C6" s="11">
+        <v>4032.45</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1854.76</v>
+      </c>
+      <c r="E6" s="11">
+        <v>26.496600000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2723,12 +2990,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C1EF3-9107-45D0-BDC6-1BE96269110B}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2738,47 +3005,47 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>8</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="10">
         <v>31.36</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="10">
         <v>32.93</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="10">
         <v>34.43</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="10">
         <v>35.979999999999997</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>37.450000000000003</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="10">
         <v>39.1</v>
       </c>
     </row>
@@ -2786,22 +3053,22 @@
       <c r="A3" s="7">
         <v>9</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="10">
         <v>32.479999999999997</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>34.15</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="10">
         <v>35.65</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="10">
         <v>37.28</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>38.770000000000003</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>40.51</v>
       </c>
     </row>
@@ -2809,22 +3076,22 @@
       <c r="A4" s="7">
         <v>10</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="10">
         <v>33.659999999999997</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>35.35</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="10">
         <v>36.950000000000003</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="10">
         <v>38.64</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>40.19</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>41.97</v>
       </c>
     </row>
@@ -2832,22 +3099,22 @@
       <c r="A5" s="7">
         <v>12</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="10">
         <v>36.270000000000003</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="10">
         <v>38.1</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="10">
         <v>39.81</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="10">
         <v>41.64</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>43.29</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <v>45.25</v>
       </c>
     </row>
@@ -2856,12 +3123,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D0C04D-DA9A-40F6-9536-2CFBACFAB58B}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2883,21 +3150,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008B72074D08840F4A907EA3B37AB4414E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7356207cb152440f28e0cdf491afbdb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -3011,7 +3263,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D72C636-6F61-4865-A889-4D5549F92FE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D543704-520C-4582-8787-7B48264267E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -3026,26 +3309,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED56B025-4D52-411E-B5B1-9A793E8274FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D72C636-6F61-4865-A889-4D5549F92FE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/model_inputs/labour_reports/staff_salaries.xlsx
+++ b/model_inputs/labour_reports/staff_salaries.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjc92\Downloads\LMBME Service Delivery Cost Model\model_inputs\labour_reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjc92\Downloads\biomed-service-delivery-cost-model\model_inputs\labour_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3145F1B4-64FE-4562-AA2E-DC7129968A97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F866B162-3A6F-4828-A7C3-2A80E75CE9D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1086,7 +1086,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,8 +1801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726CAD88-95B2-48F4-83A5-5059E9D62D0D}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2870,15 +2870,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FF89A6-1CD6-4DA3-AA16-6BCC8BA59369}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3150,6 +3150,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008B72074D08840F4A907EA3B37AB4414E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7356207cb152440f28e0cdf491afbdb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -3263,33 +3278,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D72C636-6F61-4865-A889-4D5549F92FE9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED56B025-4D52-411E-B5B1-9A793E8274FF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3310,9 +3302,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED56B025-4D52-411E-B5B1-9A793E8274FF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D72C636-6F61-4865-A889-4D5549F92FE9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/model_inputs/labour_reports/staff_salaries.xlsx
+++ b/model_inputs/labour_reports/staff_salaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjc92\Downloads\biomed-service-delivery-cost-model\model_inputs\labour_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F866B162-3A6F-4828-A7C3-2A80E75CE9D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719648A2-8665-4E6C-B771-D69E15796DA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regional Staff" sheetId="2" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="109">
   <si>
     <t>Administrative Support Sec</t>
   </si>
@@ -494,19 +494,13 @@
     <t>FHA, VCH, PHC, PHSA</t>
   </si>
   <si>
-    <t>step</t>
-  </si>
-  <si>
-    <t>annual</t>
-  </si>
-  <si>
-    <t>monthly</t>
-  </si>
-  <si>
-    <t>bi_weekly</t>
-  </si>
-  <si>
-    <t>hourly</t>
+    <t>grid</t>
+  </si>
+  <si>
+    <t>monthly_salary</t>
+  </si>
+  <si>
+    <t>hourly_wage</t>
   </si>
 </sst>
 </file>
@@ -608,7 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -618,9 +612,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1085,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,14 +1165,16 @@
       <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>24</v>
+      </c>
       <c r="D3" s="4">
-        <f>'Admin Suport Sec Salary Sched'!$B$2</f>
-        <v>42900.72</v>
+        <f>12*'Admin Suport Sec Salary Sched'!$B$2</f>
+        <v>50940</v>
       </c>
       <c r="E3" s="4">
-        <f>'Admin Suport Sec Salary Sched'!$B$6</f>
-        <v>48389.39</v>
+        <f>12*'Admin Suport Sec Salary Sched'!$B$2</f>
+        <v>50940</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>30</v>
@@ -1230,14 +1227,16 @@
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>24</v>
+      </c>
       <c r="D5" s="4">
-        <f>'Admin Suport Sec Salary Sched'!$B$2</f>
-        <v>42900.72</v>
+        <f>12*'Admin Suport Sec Salary Sched'!$B$2</f>
+        <v>50940</v>
       </c>
       <c r="E5" s="4">
-        <f>'Admin Suport Sec Salary Sched'!$B$6</f>
-        <v>48389.39</v>
+        <f>12*'Admin Suport Sec Salary Sched'!$B$2</f>
+        <v>50940</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>27</v>
@@ -1259,14 +1258,16 @@
       <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3">
+        <v>24</v>
+      </c>
       <c r="D6" s="4">
-        <f>'Admin Suport Sec Salary Sched'!$B$2</f>
-        <v>42900.72</v>
+        <f>12*'Admin Suport Sec Salary Sched'!$B$2</f>
+        <v>50940</v>
       </c>
       <c r="E6" s="4">
-        <f>'Admin Suport Sec Salary Sched'!$B$6</f>
-        <v>48389.39</v>
+        <f>12*'Admin Suport Sec Salary Sched'!$B$2</f>
+        <v>50940</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>29</v>
@@ -1288,14 +1289,16 @@
       <c r="B7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3">
+        <v>24</v>
+      </c>
       <c r="D7" s="4">
-        <f>'Admin Suport Sec Salary Sched'!$B$2</f>
-        <v>42900.72</v>
+        <f>12*'Admin Suport Sec Salary Sched'!$B$2</f>
+        <v>50940</v>
       </c>
       <c r="E7" s="4">
-        <f>'Admin Suport Sec Salary Sched'!$B$6</f>
-        <v>48389.39</v>
+        <f>12*'Admin Suport Sec Salary Sched'!$B$2</f>
+        <v>50940</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>27</v>
@@ -1741,14 +1744,16 @@
       <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3">
+        <v>24</v>
+      </c>
       <c r="D22" s="4">
-        <f>'Admin Suport Sec Salary Sched'!$B$2</f>
-        <v>42900.72</v>
+        <f>12*'Admin Suport Sec Salary Sched'!$B$2</f>
+        <v>50940</v>
       </c>
       <c r="E22" s="4">
-        <f>'Admin Suport Sec Salary Sched'!$B$6</f>
-        <v>48389.39</v>
+        <f>12*'Admin Suport Sec Salary Sched'!$B$2</f>
+        <v>50940</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>28</v>
@@ -1801,7 +1806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726CAD88-95B2-48F4-83A5-5059E9D62D0D}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -2868,125 +2873,46 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FF89A6-1CD6-4DA3-AA16-6BCC8BA59369}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11">
-        <v>42900.72</v>
-      </c>
-      <c r="C2" s="11">
-        <v>3575.06</v>
-      </c>
-      <c r="D2" s="11">
-        <v>1644.38</v>
-      </c>
-      <c r="E2" s="11">
-        <v>23.491099999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11">
-        <v>44070.31</v>
-      </c>
-      <c r="C3" s="11">
-        <v>3672.53</v>
-      </c>
-      <c r="D3" s="11">
-        <v>1689.21</v>
-      </c>
-      <c r="E3" s="11">
-        <v>24.131599999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11">
-        <v>45276.94</v>
-      </c>
-      <c r="C4" s="11">
-        <v>3773.08</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1735.46</v>
-      </c>
-      <c r="E4" s="11">
-        <v>24.792300000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11">
-        <v>46524.79</v>
-      </c>
-      <c r="C5" s="11">
-        <v>3877.07</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1783.29</v>
-      </c>
-      <c r="E5" s="11">
-        <v>25.4756</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11">
-        <v>48389.39</v>
-      </c>
-      <c r="C6" s="11">
-        <v>4032.45</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1854.76</v>
-      </c>
-      <c r="E6" s="11">
-        <v>26.496600000000001</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>24</v>
+      </c>
+      <c r="B2" s="12">
+        <v>4245</v>
+      </c>
+      <c r="C2" s="12">
+        <v>26.12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2994,8 +2920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C1EF3-9107-45D0-BDC6-1BE96269110B}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3030,22 +2956,22 @@
       <c r="A2" s="7">
         <v>8</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>31.36</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>32.93</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>34.43</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>35.979999999999997</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>37.450000000000003</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>39.1</v>
       </c>
     </row>
@@ -3053,22 +2979,22 @@
       <c r="A3" s="7">
         <v>9</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>32.479999999999997</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>34.15</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>35.65</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>37.28</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>38.770000000000003</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>40.51</v>
       </c>
     </row>
@@ -3076,22 +3002,22 @@
       <c r="A4" s="7">
         <v>10</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>33.659999999999997</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>35.35</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>36.950000000000003</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>38.64</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>40.19</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>41.97</v>
       </c>
     </row>
@@ -3099,22 +3025,22 @@
       <c r="A5" s="7">
         <v>12</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>36.270000000000003</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>38.1</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>39.81</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>41.64</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>43.29</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>45.25</v>
       </c>
     </row>

--- a/model_inputs/labour_reports/staff_salaries.xlsx
+++ b/model_inputs/labour_reports/staff_salaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjc92\Downloads\biomed-service-delivery-cost-model\model_inputs\labour_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719648A2-8665-4E6C-B771-D69E15796DA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91457DF3-14C4-4969-AA09-89C65E8C888B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="3930" windowWidth="21600" windowHeight="11265" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regional Staff" sheetId="2" r:id="rId1"/>
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726CAD88-95B2-48F4-83A5-5059E9D62D0D}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2920,8 +2920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C1EF3-9107-45D0-BDC6-1BE96269110B}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3076,21 +3076,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008B72074D08840F4A907EA3B37AB4414E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7356207cb152440f28e0cdf491afbdb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -3204,10 +3189,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED56B025-4D52-411E-B5B1-9A793E8274FF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D72C636-6F61-4865-A889-4D5549F92FE9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3228,17 +3236,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D72C636-6F61-4865-A889-4D5549F92FE9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED56B025-4D52-411E-B5B1-9A793E8274FF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>